--- a/REGULAR/ONT/DELFINO, NIÑA.xlsx
+++ b/REGULAR/ONT/DELFINO, NIÑA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="215">
   <si>
     <t>PERIOD</t>
   </si>
@@ -661,6 +661,24 @@
   </si>
   <si>
     <t>UT(0-0-6)</t>
+  </si>
+  <si>
+    <t>10/2-4/2023</t>
+  </si>
+  <si>
+    <t>10/5,6,9/2023</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>11/23,26/2023</t>
+  </si>
+  <si>
+    <t>SOLO 12/09/2023-12/11/2023</t>
+  </si>
+  <si>
+    <t>SOLO(3-0-0)</t>
   </si>
 </sst>
 </file>
@@ -673,7 +691,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +725,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -897,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,6 +1064,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1074,6 +1105,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1523,7 +1557,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1600,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1664,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1724,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1790,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1853,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1951,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +2010,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2075,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2118,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2193,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2379,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2445,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2503,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2569,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2625,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2700,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2743,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2809,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2865,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,7 +2963,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2992,7 +3026,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3092,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K247" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K251" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3436,12 +3470,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K247"/>
+  <dimension ref="A2:K251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A216" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="E225" sqref="E225"/>
+      <pane ySplit="3570" topLeftCell="A234" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,64 +3497,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="57"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="60">
         <v>39336</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3546,18 +3582,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3604,7 +3640,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>26.175000000000011</v>
+        <v>31.425000000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3614,7 +3650,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8808,7 +8844,7 @@
       </c>
       <c r="C242" s="13"/>
       <c r="D242" s="39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E242" s="9"/>
       <c r="F242" s="20"/>
@@ -8817,7 +8853,7 @@
         <v/>
       </c>
       <c r="H242" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
@@ -8852,15 +8888,17 @@
       <c r="B244" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C244" s="13"/>
+      <c r="C244" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D244" s="39">
         <v>2</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G244" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H244" s="39"/>
       <c r="I244" s="9"/>
@@ -8892,15 +8930,19 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="40"/>
+      <c r="A246" s="49">
+        <v>45139</v>
+      </c>
       <c r="B246" s="20"/>
-      <c r="C246" s="13"/>
+      <c r="C246" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D246" s="39"/>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G246" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H246" s="39"/>
       <c r="I246" s="9"/>
@@ -8908,20 +8950,118 @@
       <c r="K246" s="20"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="40"/>
+      <c r="A247" s="49">
+        <v>45170</v>
+      </c>
       <c r="B247" s="15"/>
-      <c r="C247" s="41"/>
+      <c r="C247" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D247" s="42"/>
       <c r="E247" s="9"/>
       <c r="F247" s="15"/>
-      <c r="G247" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G247" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H247" s="42"/>
       <c r="I247" s="9"/>
       <c r="J247" s="12"/>
       <c r="K247" s="15"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" s="49">
+        <v>45200</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C248" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D248" s="42"/>
+      <c r="E248" s="50"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H248" s="42">
+        <v>3</v>
+      </c>
+      <c r="I248" s="50"/>
+      <c r="J248" s="12"/>
+      <c r="K248" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="40"/>
+      <c r="B249" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C249" s="13"/>
+      <c r="D249" s="39"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H249" s="39">
+        <v>3</v>
+      </c>
+      <c r="I249" s="9"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="49">
+        <v>45231</v>
+      </c>
+      <c r="B250" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C250" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D250" s="39"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H250" s="39"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="49">
+        <v>45261</v>
+      </c>
+      <c r="B251" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C251" s="13"/>
+      <c r="D251" s="39"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H251" s="39"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="63" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8987,17 +9127,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -9078,12 +9218,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
